--- a/01_Vor_und_Nachbereitung_von_XLSX_Dateien_für_die_Übersetzung/Code_Solutions/files/DPDHL-Chatbot-Export.xlsx
+++ b/01_Vor_und_Nachbereitung_von_XLSX_Dateien_für_die_Übersetzung/Code_Solutions/files/DPDHL-Chatbot-Export.xlsx
@@ -37249,13 +37249,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DE9BA3A-B09D-44F6-9EDF-3911FC2AF67C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EFCA6A7-E071-4279-8FA3-9385FDF15FFC}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{394ED41D-8A40-4B35-BF26-9355F8A40629}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{315C02D3-BD5B-430D-92C0-84007BD97582}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81539A5E-DD05-45F8-9728-315D053F22EC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4C435AE-417E-47ED-A2F7-777CBB308D02}"/>
 </file>